--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3AC6FE-4585-4F20-91BD-04C4354F488F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C47749-0199-4419-A7D5-8B334A0ED8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29570,7 +29570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33633,7 +33633,7 @@
       </c>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="31" t="s">
         <v>578</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -33831,7 +33831,7 @@
       </c>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="49" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -33897,7 +33897,7 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C65" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C47749-0199-4419-A7D5-8B334A0ED8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99811F4C-CC65-4553-9E48-4E26B17D7F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29570,7 +29570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33963,7 +33963,7 @@
       </c>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99811F4C-CC65-4553-9E48-4E26B17D7F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B55FD3-8612-4421-9EBA-10FC0DFDD2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -2289,7 +2289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2437,6 +2437,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -29569,8 +29572,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -34029,7 +34032,7 @@
       </c>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -34095,7 +34098,7 @@
       </c>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -34161,7 +34164,7 @@
       </c>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -34227,7 +34230,7 @@
       </c>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -34293,7 +34296,7 @@
       </c>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -34359,7 +34362,7 @@
       </c>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="49" t="s">
         <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -34425,7 +34428,7 @@
       </c>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="49" t="s">
         <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -34491,7 +34494,7 @@
       </c>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -34625,7 +34628,7 @@
       </c>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -34759,7 +34762,7 @@
       </c>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -34825,7 +34828,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -35027,7 +35030,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="49" t="s">
         <v>630</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -35367,7 +35370,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="49" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -35435,7 +35438,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="9" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B55FD3-8612-4421-9EBA-10FC0DFDD2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C686223-A64F-44C9-88DD-587D3C25882C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -2191,7 +2191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2213,12 +2213,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,7 +2283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2410,9 +2404,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2428,14 +2419,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -29572,8 +29563,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29591,7 +29582,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>671</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -29796,7 +29787,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>560</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -30538,7 +30529,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>530</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -30876,7 +30867,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>534</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -31149,7 +31140,7 @@
       <c r="B24" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -31282,7 +31273,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>539</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -31618,7 +31609,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>542</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -31954,7 +31945,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>545</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -32358,7 +32349,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="56" t="s">
         <v>549</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -34828,7 +34819,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -35506,7 +35497,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -35574,7 +35565,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -35642,7 +35633,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -35708,7 +35699,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -35912,7 +35903,7 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="31" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -36116,7 +36107,7 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="55" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -36184,7 +36175,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="56" t="s">
         <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -36867,10 +36858,10 @@
       </c>
     </row>
     <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="52" t="s">
         <v>679</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -36935,10 +36926,10 @@
       </c>
     </row>
     <row r="110" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="57" t="s">
         <v>674</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="53" t="s">
         <v>662</v>
       </c>
       <c r="D110" s="32" t="s">
@@ -37003,7 +36994,7 @@
       </c>
     </row>
     <row r="111" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="57" t="s">
         <v>661</v>
       </c>
       <c r="C111" s="36" t="s">
@@ -37071,7 +37062,7 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="57" t="s">
         <v>667</v>
       </c>
       <c r="C112" s="36" t="s">
@@ -37139,7 +37130,7 @@
       </c>
     </row>
     <row r="113" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B113" s="58" t="s">
+      <c r="B113" s="57" t="s">
         <v>668</v>
       </c>
       <c r="C113" s="36" t="s">
@@ -37207,7 +37198,7 @@
       </c>
     </row>
     <row r="114" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>669</v>
       </c>
       <c r="C114" s="36" t="s">
@@ -37278,7 +37269,7 @@
       <c r="B115" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="54" t="s">
         <v>660</v>
       </c>
       <c r="D115" s="32" t="s">
@@ -37346,7 +37337,7 @@
       <c r="B116" s="31" t="s">
         <v>675</v>
       </c>
-      <c r="C116" s="60" t="s">
+      <c r="C116" s="59" t="s">
         <v>677</v>
       </c>
       <c r="D116" s="32" t="s">
@@ -37414,7 +37405,7 @@
       <c r="B117" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="C117" s="60" t="s">
+      <c r="C117" s="59" t="s">
         <v>678</v>
       </c>
       <c r="D117" s="32" t="s">
